--- a/data/route_charges_share.xlsx
+++ b/data/route_charges_share.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C945268-6D80-4014-B6F0-9F80EE5344D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BBA9EC-5A3E-4468-815B-0E09E1DE9A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Business aviation</t>
   </si>
   <si>
-    <t>Cargo</t>
-  </si>
-  <si>
     <t>Military</t>
   </si>
   <si>
@@ -56,31 +53,34 @@
     <t>segment</t>
   </si>
   <si>
-    <t>share_charges</t>
-  </si>
-  <si>
-    <t>share_flights2016</t>
-  </si>
-  <si>
-    <t>share_flights2019</t>
-  </si>
-  <si>
-    <t>share_km2016</t>
-  </si>
-  <si>
-    <t>share_km2019</t>
-  </si>
-  <si>
-    <t>Scheduled airlines (incl. low-cost and charter airlines)</t>
+    <t>Mainline</t>
+  </si>
+  <si>
+    <t>Low-cost</t>
+  </si>
+  <si>
+    <t>All-cargo</t>
+  </si>
+  <si>
+    <t>Charter</t>
+  </si>
+  <si>
+    <t>Regional aircraft</t>
+  </si>
+  <si>
+    <t>share_flights</t>
+  </si>
+  <si>
+    <t>share_nm</t>
+  </si>
+  <si>
+    <t>share_charge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,9 +110,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G20:G23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,146 +403,146 @@
     <col min="1" max="1" width="49.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D4">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="C6">
+        <v>0.185</v>
+      </c>
+      <c r="D6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>0.85399999999999998</v>
-      </c>
-      <c r="C2">
-        <v>0.871</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.89</v>
-      </c>
-      <c r="E2">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="F2">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="C3">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="E3">
+      <c r="B7">
+        <v>6.2E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C8">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F3">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D8">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="C4">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="D4">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="F4">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D5">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="E5">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="F5">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="C6">
-        <v>2.7E-2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="E6">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="F6">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="D10">
         <v>1</v>
       </c>
     </row>
